--- a/uber.xlsx
+++ b/uber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matfs\Desktop\Ciência dos Dados\cd19\Projeto2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thiagodavid/Documents/Cienciadosdados/P2-Ciencia-dos-Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D23B83B-E574-4409-8754-36ED2238B7C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11471AC2-53BE-D041-B07A-FEC2BD2747CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1933,17 +1933,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B84" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="249.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="249.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2023,13 +2023,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2037,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2045,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2061,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2069,7 +2071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2077,7 +2079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2085,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2093,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2101,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2109,7 +2111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -2117,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2125,7 +2127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2133,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2141,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -2149,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -2157,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2165,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2173,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -2189,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -2197,7 +2199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -2213,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -2221,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -2229,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -2237,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -2253,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -2261,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -2269,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -2277,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -2285,7 +2287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -2293,7 +2295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -2301,7 +2303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -2309,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -2317,7 +2319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -2325,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -2341,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -2349,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -2357,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -2365,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -2373,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -2381,7 +2383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -2389,7 +2391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -2397,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -2405,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -2413,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -2421,7 +2423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -2429,7 +2431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -2437,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -2453,7 +2455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -2461,7 +2463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -2469,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -2477,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -2485,7 +2487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -2493,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -2501,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -2509,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -2517,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -2525,7 +2527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -2533,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -2541,7 +2543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -2549,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>72</v>
       </c>
@@ -2557,7 +2559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>73</v>
       </c>
@@ -2565,7 +2567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>74</v>
       </c>
@@ -2573,7 +2575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>75</v>
       </c>
@@ -2581,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>76</v>
       </c>
@@ -2589,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>77</v>
       </c>
@@ -2597,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>78</v>
       </c>
@@ -2605,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1</v>
       </c>
@@ -2613,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -2621,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -2629,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -2637,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -2645,7 +2647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>83</v>
       </c>
@@ -2653,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -2661,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>84</v>
       </c>
@@ -2669,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>85</v>
       </c>
@@ -2677,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -2685,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -2693,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>28</v>
       </c>
@@ -2701,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>88</v>
       </c>
@@ -2709,7 +2711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1</v>
       </c>
@@ -2717,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1</v>
       </c>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>89</v>
       </c>
@@ -2733,7 +2735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>90</v>
       </c>
@@ -2741,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>91</v>
       </c>
@@ -2749,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>92</v>
       </c>
@@ -2757,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>93</v>
       </c>
@@ -2765,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>94</v>
       </c>
@@ -2773,7 +2775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>95</v>
       </c>
@@ -2781,7 +2783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>96</v>
       </c>
@@ -2789,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -2797,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>97</v>
       </c>
@@ -2805,7 +2807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>98</v>
       </c>
@@ -2813,7 +2815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>99</v>
       </c>
@@ -2821,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>100</v>
       </c>
@@ -2829,7 +2831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>101</v>
       </c>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -2845,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>78</v>
       </c>
@@ -2853,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>102</v>
       </c>
@@ -2861,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>103</v>
       </c>
@@ -2869,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>104</v>
       </c>
@@ -2877,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>105</v>
       </c>
@@ -2885,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>106</v>
       </c>
@@ -2893,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>107</v>
       </c>
@@ -2901,7 +2903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>108</v>
       </c>
@@ -2909,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>109</v>
       </c>
@@ -2917,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>110</v>
       </c>
@@ -2925,7 +2927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>3</v>
       </c>
@@ -2933,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>111</v>
       </c>
@@ -2941,7 +2943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>112</v>
       </c>
@@ -2949,7 +2951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>113</v>
       </c>
@@ -2957,7 +2959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>114</v>
       </c>
@@ -2965,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>115</v>
       </c>
@@ -2973,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>116</v>
       </c>
@@ -2981,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>117</v>
       </c>
@@ -2989,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>118</v>
       </c>
@@ -2997,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1</v>
       </c>
@@ -3005,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>119</v>
       </c>
@@ -3013,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>120</v>
       </c>
@@ -3021,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>121</v>
       </c>
@@ -3029,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>122</v>
       </c>
@@ -3037,7 +3039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>123</v>
       </c>
@@ -3045,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>124</v>
       </c>
@@ -3053,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>125</v>
       </c>
@@ -3061,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1</v>
       </c>
@@ -3069,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>126</v>
       </c>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>127</v>
       </c>
@@ -3085,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>128</v>
       </c>
@@ -3093,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>129</v>
       </c>
@@ -3101,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>130</v>
       </c>
@@ -3109,7 +3111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>131</v>
       </c>
@@ -3117,7 +3119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>132</v>
       </c>
@@ -3125,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>133</v>
       </c>
@@ -3133,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>134</v>
       </c>
@@ -3141,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>135</v>
       </c>
@@ -3149,7 +3151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1</v>
       </c>
@@ -3157,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>136</v>
       </c>
@@ -3165,7 +3167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>137</v>
       </c>
@@ -3173,7 +3175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>138</v>
       </c>
@@ -3181,7 +3183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>139</v>
       </c>
@@ -3189,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1</v>
       </c>
@@ -3197,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>140</v>
       </c>
@@ -3205,7 +3207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>141</v>
       </c>
@@ -3213,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>142</v>
       </c>
@@ -3221,7 +3223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>143</v>
       </c>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>144</v>
       </c>
@@ -3237,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>145</v>
       </c>
@@ -3245,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>146</v>
       </c>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>147</v>
       </c>
@@ -3261,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>148</v>
       </c>
@@ -3269,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>149</v>
       </c>
@@ -3277,7 +3279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>150</v>
       </c>
@@ -3285,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>151</v>
       </c>
@@ -3293,7 +3295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>152</v>
       </c>
@@ -3301,7 +3303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>153</v>
       </c>
@@ -3309,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>154</v>
       </c>
@@ -3317,7 +3319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>155</v>
       </c>
@@ -3325,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>156</v>
       </c>
@@ -3333,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>157</v>
       </c>
@@ -3341,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>158</v>
       </c>
@@ -3349,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>159</v>
       </c>
@@ -3357,7 +3359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>160</v>
       </c>
@@ -3365,7 +3367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>161</v>
       </c>
@@ -3373,7 +3375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>9</v>
       </c>
@@ -3381,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>162</v>
       </c>
@@ -3389,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1</v>
       </c>
@@ -3397,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>19</v>
       </c>
@@ -3405,7 +3407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>78</v>
       </c>
@@ -3413,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>163</v>
       </c>
@@ -3421,7 +3423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>164</v>
       </c>
@@ -3429,7 +3431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>165</v>
       </c>
@@ -3437,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>166</v>
       </c>
@@ -3445,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>167</v>
       </c>
@@ -3453,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>168</v>
       </c>
@@ -3461,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>169</v>
       </c>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>170</v>
       </c>
@@ -3477,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>171</v>
       </c>
@@ -3485,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>172</v>
       </c>
@@ -3493,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>173</v>
       </c>
@@ -3501,7 +3503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>174</v>
       </c>
@@ -3509,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>175</v>
       </c>
@@ -3517,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>176</v>
       </c>
@@ -3525,7 +3527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>177</v>
       </c>
@@ -3533,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>178</v>
       </c>
@@ -3541,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>179</v>
       </c>
@@ -3549,7 +3551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>180</v>
       </c>
@@ -3557,7 +3559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>181</v>
       </c>
@@ -3565,7 +3567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1</v>
       </c>
@@ -3573,7 +3575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>182</v>
       </c>
@@ -3581,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1</v>
       </c>
@@ -3589,7 +3591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>183</v>
       </c>
@@ -3597,7 +3599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>184</v>
       </c>
@@ -3605,7 +3607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>185</v>
       </c>
@@ -3613,7 +3615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>186</v>
       </c>
@@ -3621,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>187</v>
       </c>
@@ -3629,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1</v>
       </c>
@@ -3637,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>188</v>
       </c>
@@ -3645,7 +3647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>189</v>
       </c>
@@ -3653,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>190</v>
       </c>
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>191</v>
       </c>
@@ -3669,7 +3671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>192</v>
       </c>
@@ -3677,7 +3679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>193</v>
       </c>
@@ -3685,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>194</v>
       </c>
@@ -3693,7 +3695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>195</v>
       </c>
@@ -3701,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>196</v>
       </c>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>197</v>
       </c>
@@ -3717,7 +3719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>198</v>
       </c>
@@ -3725,7 +3727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>199</v>
       </c>
@@ -3733,7 +3735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>200</v>
       </c>
@@ -3741,7 +3743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>201</v>
       </c>
@@ -3749,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>202</v>
       </c>
@@ -3757,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>203</v>
       </c>
@@ -3765,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>204</v>
       </c>
@@ -3773,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>169</v>
       </c>
@@ -3781,7 +3783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>205</v>
       </c>
@@ -3789,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>206</v>
       </c>
@@ -3797,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>207</v>
       </c>
@@ -3805,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>208</v>
       </c>
@@ -3813,7 +3815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>209</v>
       </c>
@@ -3821,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1</v>
       </c>
@@ -3829,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>3</v>
       </c>
@@ -3837,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>210</v>
       </c>
@@ -3845,7 +3847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>211</v>
       </c>
@@ -3853,7 +3855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>212</v>
       </c>
@@ -3861,7 +3863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>213</v>
       </c>
@@ -3869,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1</v>
       </c>
@@ -3877,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>214</v>
       </c>
@@ -3885,7 +3887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1</v>
       </c>
@@ -3893,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>215</v>
       </c>
@@ -3901,7 +3903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>216</v>
       </c>
@@ -3909,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>217</v>
       </c>
@@ -3917,7 +3919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>218</v>
       </c>
@@ -3925,7 +3927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>219</v>
       </c>
@@ -3933,7 +3935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>220</v>
       </c>
@@ -3941,7 +3943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>221</v>
       </c>
@@ -3949,7 +3951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>222</v>
       </c>
@@ -3957,7 +3959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>223</v>
       </c>
@@ -3965,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>224</v>
       </c>
@@ -3973,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>225</v>
       </c>
@@ -3981,7 +3983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1</v>
       </c>
@@ -3989,7 +3991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>226</v>
       </c>
@@ -3997,7 +3999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>227</v>
       </c>
@@ -4005,7 +4007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>228</v>
       </c>
@@ -4013,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1</v>
       </c>
@@ -4021,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>229</v>
       </c>
@@ -4029,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>230</v>
       </c>
@@ -4037,7 +4039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1</v>
       </c>
@@ -4045,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>231</v>
       </c>
@@ -4053,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>232</v>
       </c>
@@ -4061,7 +4063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>233</v>
       </c>
@@ -4069,7 +4071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1</v>
       </c>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>234</v>
       </c>
@@ -4085,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1</v>
       </c>
@@ -4093,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>235</v>
       </c>
@@ -4101,7 +4103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1</v>
       </c>
@@ -4109,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>236</v>
       </c>
@@ -4117,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>237</v>
       </c>
@@ -4125,7 +4127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>238</v>
       </c>
@@ -4133,7 +4135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>239</v>
       </c>
@@ -4141,7 +4143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>240</v>
       </c>
@@ -4149,7 +4151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>241</v>
       </c>
@@ -4157,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1</v>
       </c>
@@ -4165,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>242</v>
       </c>
@@ -4173,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>243</v>
       </c>
@@ -4181,7 +4183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1</v>
       </c>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>244</v>
       </c>
@@ -4197,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>245</v>
       </c>
@@ -4205,7 +4207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>246</v>
       </c>
@@ -4213,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>247</v>
       </c>
@@ -4221,7 +4223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>248</v>
       </c>
@@ -4229,7 +4231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>249</v>
       </c>
@@ -4237,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>250</v>
       </c>
@@ -4245,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>251</v>
       </c>
@@ -4253,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>252</v>
       </c>
@@ -4261,7 +4263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>3</v>
       </c>
@@ -4269,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>253</v>
       </c>
@@ -4277,7 +4279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>254</v>
       </c>
@@ -4285,7 +4287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>255</v>
       </c>
@@ -4293,7 +4295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>256</v>
       </c>
@@ -4301,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>257</v>
       </c>
@@ -4309,7 +4311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>258</v>
       </c>
@@ -4317,7 +4319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>259</v>
       </c>
@@ -4325,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>260</v>
       </c>
@@ -4333,7 +4335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>261</v>
       </c>
@@ -4341,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>262</v>
       </c>
@@ -4363,1009 +4365,1009 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>439</v>
       </c>

--- a/uber.xlsx
+++ b/uber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thiagodavid/Documents/Cienciadosdados/P2-Ciencia-dos-Dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matfs\Desktop\Ciência dos Dados\P2-Ciencia-dos-Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11471AC2-53BE-D041-B07A-FEC2BD2747CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC65C409-45CA-4B0A-99A4-1D41067463C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="441">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1522,7 +1522,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1575,11 +1575,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1592,6 +1605,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1933,17 +1953,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B84" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="249.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="249.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1951,7 +1971,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1959,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1967,7 +1987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1975,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1983,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1991,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1999,7 +2019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2007,7 +2027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2015,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2023,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2031,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2039,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2047,7 +2067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2055,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2063,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2071,7 +2091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2079,7 +2099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2087,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2095,7 +2115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2103,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2111,7 +2131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -2119,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2127,7 +2147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2135,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2143,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -2151,7 +2171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -2159,7 +2179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2167,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2175,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -2183,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -2191,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -2199,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -2207,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -2215,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -2223,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -2231,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -2239,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -2247,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -2255,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -2263,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -2271,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -2279,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -2287,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -2295,7 +2315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -2303,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -2311,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -2319,7 +2339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -2327,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -2335,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -2343,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -2351,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -2359,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -2367,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -2375,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -2383,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -2391,7 +2411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -2399,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -2407,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -2415,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -2423,7 +2443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -2431,7 +2451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -2439,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -2447,7 +2467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -2455,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -2463,7 +2483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -2471,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -2479,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -2487,7 +2507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -2495,7 +2515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -2503,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -2511,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -2519,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -2527,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -2535,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -2543,7 +2563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -2551,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>72</v>
       </c>
@@ -2559,7 +2579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>73</v>
       </c>
@@ -2567,7 +2587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>74</v>
       </c>
@@ -2575,7 +2595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>75</v>
       </c>
@@ -2583,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>76</v>
       </c>
@@ -2591,7 +2611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>77</v>
       </c>
@@ -2599,7 +2619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>78</v>
       </c>
@@ -2607,7 +2627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>1</v>
       </c>
@@ -2615,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -2623,7 +2643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -2631,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -2639,7 +2659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -2647,7 +2667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>83</v>
       </c>
@@ -2655,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -2663,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>84</v>
       </c>
@@ -2671,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>85</v>
       </c>
@@ -2679,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -2687,7 +2707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -2695,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>28</v>
       </c>
@@ -2703,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>88</v>
       </c>
@@ -2711,7 +2731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>1</v>
       </c>
@@ -2719,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>1</v>
       </c>
@@ -2727,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>89</v>
       </c>
@@ -2735,7 +2755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>90</v>
       </c>
@@ -2743,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>91</v>
       </c>
@@ -2751,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>92</v>
       </c>
@@ -2759,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>93</v>
       </c>
@@ -2767,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>94</v>
       </c>
@@ -2775,7 +2795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>95</v>
       </c>
@@ -2783,7 +2803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>96</v>
       </c>
@@ -2791,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -2799,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>97</v>
       </c>
@@ -2807,7 +2827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>98</v>
       </c>
@@ -2815,7 +2835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>99</v>
       </c>
@@ -2823,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>100</v>
       </c>
@@ -2831,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>101</v>
       </c>
@@ -2839,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -2847,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>78</v>
       </c>
@@ -2855,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>102</v>
       </c>
@@ -2863,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>103</v>
       </c>
@@ -2871,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>104</v>
       </c>
@@ -2879,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>105</v>
       </c>
@@ -2887,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>106</v>
       </c>
@@ -2895,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>107</v>
       </c>
@@ -2903,7 +2923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>108</v>
       </c>
@@ -2911,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>109</v>
       </c>
@@ -2919,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>110</v>
       </c>
@@ -2927,7 +2947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>3</v>
       </c>
@@ -2935,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>111</v>
       </c>
@@ -2943,7 +2963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>112</v>
       </c>
@@ -2951,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>113</v>
       </c>
@@ -2959,7 +2979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>114</v>
       </c>
@@ -2967,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>115</v>
       </c>
@@ -2975,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>116</v>
       </c>
@@ -2983,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>117</v>
       </c>
@@ -2991,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>118</v>
       </c>
@@ -2999,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>1</v>
       </c>
@@ -3007,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>119</v>
       </c>
@@ -3015,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>120</v>
       </c>
@@ -3023,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>121</v>
       </c>
@@ -3031,7 +3051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>122</v>
       </c>
@@ -3039,7 +3059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>123</v>
       </c>
@@ -3047,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>124</v>
       </c>
@@ -3055,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>125</v>
       </c>
@@ -3063,7 +3083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>1</v>
       </c>
@@ -3071,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>126</v>
       </c>
@@ -3079,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>127</v>
       </c>
@@ -3087,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>128</v>
       </c>
@@ -3095,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>129</v>
       </c>
@@ -3103,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>130</v>
       </c>
@@ -3111,7 +3131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>131</v>
       </c>
@@ -3119,7 +3139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>132</v>
       </c>
@@ -3127,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>133</v>
       </c>
@@ -3135,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>134</v>
       </c>
@@ -3143,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>135</v>
       </c>
@@ -3151,7 +3171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>1</v>
       </c>
@@ -3159,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>136</v>
       </c>
@@ -3167,7 +3187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>137</v>
       </c>
@@ -3175,7 +3195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>138</v>
       </c>
@@ -3183,7 +3203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>139</v>
       </c>
@@ -3191,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>1</v>
       </c>
@@ -3199,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>140</v>
       </c>
@@ -3207,7 +3227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>141</v>
       </c>
@@ -3215,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>142</v>
       </c>
@@ -3223,7 +3243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>143</v>
       </c>
@@ -3231,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>144</v>
       </c>
@@ -3239,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>145</v>
       </c>
@@ -3247,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>146</v>
       </c>
@@ -3255,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>147</v>
       </c>
@@ -3263,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>148</v>
       </c>
@@ -3271,7 +3291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>149</v>
       </c>
@@ -3279,7 +3299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>150</v>
       </c>
@@ -3287,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>151</v>
       </c>
@@ -3295,7 +3315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>152</v>
       </c>
@@ -3303,7 +3323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>153</v>
       </c>
@@ -3311,7 +3331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>154</v>
       </c>
@@ -3319,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>155</v>
       </c>
@@ -3327,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>156</v>
       </c>
@@ -3335,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>157</v>
       </c>
@@ -3343,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>158</v>
       </c>
@@ -3351,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>159</v>
       </c>
@@ -3359,7 +3379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>160</v>
       </c>
@@ -3367,7 +3387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>161</v>
       </c>
@@ -3375,7 +3395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>9</v>
       </c>
@@ -3383,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>162</v>
       </c>
@@ -3391,7 +3411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>1</v>
       </c>
@@ -3399,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>19</v>
       </c>
@@ -3407,7 +3427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>78</v>
       </c>
@@ -3415,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>163</v>
       </c>
@@ -3423,7 +3443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>164</v>
       </c>
@@ -3431,7 +3451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>165</v>
       </c>
@@ -3439,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>166</v>
       </c>
@@ -3447,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>167</v>
       </c>
@@ -3455,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>168</v>
       </c>
@@ -3463,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>169</v>
       </c>
@@ -3471,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>170</v>
       </c>
@@ -3479,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>171</v>
       </c>
@@ -3487,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>172</v>
       </c>
@@ -3495,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>173</v>
       </c>
@@ -3503,7 +3523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>174</v>
       </c>
@@ -3511,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>175</v>
       </c>
@@ -3519,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>176</v>
       </c>
@@ -3527,7 +3547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>177</v>
       </c>
@@ -3535,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>178</v>
       </c>
@@ -3543,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>179</v>
       </c>
@@ -3551,7 +3571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>180</v>
       </c>
@@ -3559,7 +3579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>181</v>
       </c>
@@ -3567,7 +3587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>1</v>
       </c>
@@ -3575,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>182</v>
       </c>
@@ -3583,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>1</v>
       </c>
@@ -3591,7 +3611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>183</v>
       </c>
@@ -3599,7 +3619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>184</v>
       </c>
@@ -3607,7 +3627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>185</v>
       </c>
@@ -3615,7 +3635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>186</v>
       </c>
@@ -3623,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>187</v>
       </c>
@@ -3631,7 +3651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>1</v>
       </c>
@@ -3639,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>188</v>
       </c>
@@ -3647,7 +3667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>189</v>
       </c>
@@ -3655,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>190</v>
       </c>
@@ -3663,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>191</v>
       </c>
@@ -3671,7 +3691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>192</v>
       </c>
@@ -3679,7 +3699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>193</v>
       </c>
@@ -3687,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>194</v>
       </c>
@@ -3695,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>195</v>
       </c>
@@ -3703,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>196</v>
       </c>
@@ -3711,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>197</v>
       </c>
@@ -3719,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>198</v>
       </c>
@@ -3727,7 +3747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>199</v>
       </c>
@@ -3735,7 +3755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>200</v>
       </c>
@@ -3743,7 +3763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>201</v>
       </c>
@@ -3751,7 +3771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>202</v>
       </c>
@@ -3759,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>203</v>
       </c>
@@ -3767,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>204</v>
       </c>
@@ -3775,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>169</v>
       </c>
@@ -3783,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>205</v>
       </c>
@@ -3791,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>206</v>
       </c>
@@ -3799,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>207</v>
       </c>
@@ -3807,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>208</v>
       </c>
@@ -3815,7 +3835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>209</v>
       </c>
@@ -3823,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>1</v>
       </c>
@@ -3831,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>3</v>
       </c>
@@ -3839,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>210</v>
       </c>
@@ -3847,7 +3867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>211</v>
       </c>
@@ -3855,7 +3875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>212</v>
       </c>
@@ -3863,7 +3883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>213</v>
       </c>
@@ -3871,7 +3891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>1</v>
       </c>
@@ -3879,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>214</v>
       </c>
@@ -3887,7 +3907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>1</v>
       </c>
@@ -3895,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>215</v>
       </c>
@@ -3903,7 +3923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>216</v>
       </c>
@@ -3911,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>217</v>
       </c>
@@ -3919,7 +3939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>218</v>
       </c>
@@ -3927,7 +3947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>219</v>
       </c>
@@ -3935,7 +3955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>220</v>
       </c>
@@ -3943,7 +3963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>221</v>
       </c>
@@ -3951,7 +3971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>222</v>
       </c>
@@ -3959,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>223</v>
       </c>
@@ -3967,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>224</v>
       </c>
@@ -3975,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>225</v>
       </c>
@@ -3983,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>1</v>
       </c>
@@ -3991,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>226</v>
       </c>
@@ -3999,7 +4019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>227</v>
       </c>
@@ -4007,7 +4027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>228</v>
       </c>
@@ -4015,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>1</v>
       </c>
@@ -4023,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>229</v>
       </c>
@@ -4031,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>230</v>
       </c>
@@ -4039,7 +4059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>1</v>
       </c>
@@ -4047,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>231</v>
       </c>
@@ -4055,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>232</v>
       </c>
@@ -4063,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>233</v>
       </c>
@@ -4071,7 +4091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>1</v>
       </c>
@@ -4079,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>234</v>
       </c>
@@ -4087,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>1</v>
       </c>
@@ -4095,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>235</v>
       </c>
@@ -4103,7 +4123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>1</v>
       </c>
@@ -4111,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>236</v>
       </c>
@@ -4119,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>237</v>
       </c>
@@ -4127,7 +4147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>238</v>
       </c>
@@ -4135,7 +4155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>239</v>
       </c>
@@ -4143,7 +4163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>240</v>
       </c>
@@ -4151,7 +4171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>241</v>
       </c>
@@ -4159,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>1</v>
       </c>
@@ -4167,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>242</v>
       </c>
@@ -4175,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>243</v>
       </c>
@@ -4183,7 +4203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>1</v>
       </c>
@@ -4191,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>244</v>
       </c>
@@ -4199,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>245</v>
       </c>
@@ -4207,7 +4227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>246</v>
       </c>
@@ -4215,7 +4235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>247</v>
       </c>
@@ -4223,7 +4243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>248</v>
       </c>
@@ -4231,7 +4251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>249</v>
       </c>
@@ -4239,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>250</v>
       </c>
@@ -4247,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>251</v>
       </c>
@@ -4255,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>252</v>
       </c>
@@ -4263,7 +4283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>3</v>
       </c>
@@ -4271,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>253</v>
       </c>
@@ -4279,7 +4299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>254</v>
       </c>
@@ -4287,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>255</v>
       </c>
@@ -4295,7 +4315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>256</v>
       </c>
@@ -4303,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>257</v>
       </c>
@@ -4311,7 +4331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>258</v>
       </c>
@@ -4319,7 +4339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>259</v>
       </c>
@@ -4327,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>260</v>
       </c>
@@ -4335,7 +4355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>261</v>
       </c>
@@ -4343,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>262</v>
       </c>
@@ -4359,1020 +4379,1625 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A201"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="238.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B62" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B77" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B78" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B93" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B94" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B95" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B100" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B101" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B102" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B105" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B106" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B107" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B108" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B109" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B110" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B111" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B112" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B114" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B115" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B116" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B117" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B118" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B119" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B120" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B121" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B122" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B123" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B124" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B125" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B126" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B127" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B128" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B129" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B130" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B131" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B132" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B133" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B134" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B135" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B136" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B137" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B138" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B139" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B140" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B141" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B142" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B143" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B144" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B145" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B146" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B147" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B148" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B149" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B150" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B151" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B152" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B153" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B154" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B155" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B156" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B157" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B158" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B159" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B160" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B161" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B162" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B163" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B164" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B165" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B166" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B167" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B168" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B169" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B170" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B171" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B172" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B173" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B174" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B175" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B176" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B177" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B178" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B179" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B180" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B181" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B182" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B183" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B184" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B185" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B186" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B187" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B188" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B189" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B190" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B191" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B192" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B193" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B194" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B195" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B196" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B197" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B198" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B199" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B200" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>439</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>